--- a/data/FFL_raw.xlsx
+++ b/data/FFL_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinehayes/Google Drive/Projects/Reburns/Chapters/Flammabllity/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E3B2FD-5EFE-5E40-9CFF-251BA29AC727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BF358-56ED-6844-AB7C-B7793B010B04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35060" yWindow="4180" windowWidth="25600" windowHeight="15540" xr2:uid="{6DF1BF80-2B48-D14A-9E15-F63F124A83B4}"/>
   </bookViews>
@@ -567,8 +567,8 @@
   <dimension ref="A1:E1503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D574" sqref="D574:D603"/>
+      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E752" sqref="E752"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13335,7 +13335,7 @@
         <v>2</v>
       </c>
       <c r="E751">
-        <v>410</v>
+        <v>140</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.2">
